--- a/Tryggingar/Trygginga_tafla.xlsx
+++ b/Tryggingar/Trygginga_tafla.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\svein\Desktop\Háskólinn í Reykjavík\1. Önn\Verklegt Námskeið 1\Tryggingar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{816A1969-8A6D-43A6-B0D6-6E31A6FCEB73}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83FAA648-9ADA-47BF-ACD3-51D4C4EAAF77}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="7368" xr2:uid="{A553BCD3-CECC-4778-9F8B-939E90E17677}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="37">
   <si>
     <t>Extra insurance 1</t>
   </si>
@@ -70,6 +70,78 @@
   </si>
   <si>
     <t>Third Party Insurance (Theft Insurance)</t>
+  </si>
+  <si>
+    <t>Price list</t>
+  </si>
+  <si>
+    <t>Extra inisurance 1</t>
+  </si>
+  <si>
+    <t>Extra inisurance 2</t>
+  </si>
+  <si>
+    <t>Small car</t>
+  </si>
+  <si>
+    <t>Family car</t>
+  </si>
+  <si>
+    <t>Van</t>
+  </si>
+  <si>
+    <t>SUV</t>
+  </si>
+  <si>
+    <t>Included in price</t>
+  </si>
+  <si>
+    <t>50.000 kr</t>
+  </si>
+  <si>
+    <t>75.000 kr</t>
+  </si>
+  <si>
+    <t>100.000 kr</t>
+  </si>
+  <si>
+    <t>150.000 kr</t>
+  </si>
+  <si>
+    <t>200.000 kr</t>
+  </si>
+  <si>
+    <t>300.000 kr</t>
+  </si>
+  <si>
+    <t>0 kr</t>
+  </si>
+  <si>
+    <t>Max Deductable Insurance</t>
+  </si>
+  <si>
+    <t>195.000 kr</t>
+  </si>
+  <si>
+    <t>235.000 kr</t>
+  </si>
+  <si>
+    <t>295.000 kr</t>
+  </si>
+  <si>
+    <t>395.000 kr</t>
+  </si>
+  <si>
+    <t>70.000 kr</t>
+  </si>
+  <si>
+    <t>110.000 kr</t>
+  </si>
+  <si>
+    <t>170.000 kr</t>
+  </si>
+  <si>
+    <t>270.000 kr</t>
   </si>
 </sst>
 </file>
@@ -93,7 +165,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -193,11 +265,75 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -220,6 +356,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -534,10 +716,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7396D2AE-B64F-4EC3-B483-620D14DE51D4}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -545,10 +727,11 @@
     <col min="1" max="1" width="35.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>10</v>
       </c>
@@ -562,7 +745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
@@ -576,7 +759,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>11</v>
       </c>
@@ -590,7 +773,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>12</v>
       </c>
@@ -604,7 +787,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>3</v>
       </c>
@@ -618,7 +801,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>5</v>
       </c>
@@ -632,7 +815,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>6</v>
       </c>
@@ -646,7 +829,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
         <v>7</v>
       </c>
@@ -658,6 +841,144 @@
       </c>
       <c r="D9" s="4" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="16" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
